--- a/Sprint-2/Product Backlog-Burndown.xlsx
+++ b/Sprint-2/Product Backlog-Burndown.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Projeto PDS\adocao\Sprint-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Adocao\adocao\Sprint-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -176,6 +176,30 @@
   </si>
   <si>
     <t>Criar Classe Animal</t>
+  </si>
+  <si>
+    <t>Como ponto inicial deve-se realizar a análise de requisitos, para identificar as necessidades do cliente e posteriormente definir uma solução.</t>
+  </si>
+  <si>
+    <t>Para que a equipe obtenha um maior conhecimento do software, planejem uma representação da estrutura, modelagem dos objetos e funcionalidades do sistema,  e por fim adicionem todos a um único documento.</t>
+  </si>
+  <si>
+    <t>Analisar as principais funcionalidades do sistema e selecionar os requisitos necessários para o início do desenvolvimento</t>
+  </si>
+  <si>
+    <t>Análise e levantamento de requisitos</t>
+  </si>
+  <si>
+    <t>Abstrair dados do sistema para a elaboração dos diagramas de classe e de caso de uso, como também a inserção dos mesmos no documento de requisitos para uma melhor visualização.</t>
+  </si>
+  <si>
+    <t>Documentação dos  Requisitos</t>
+  </si>
+  <si>
+    <t>Criação do diagrama de caso de uso</t>
+  </si>
+  <si>
+    <t>Criação do diagrama de classe.</t>
   </si>
 </sst>
 </file>
@@ -185,7 +209,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -265,8 +289,20 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,6 +343,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC9DAF8"/>
         <bgColor rgb="FFDBEEF4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -418,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -483,12 +531,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -507,17 +564,38 @@
     <xf numFmtId="164" fontId="8" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -998,11 +1076,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1557981568"/>
-        <c:axId val="-1557988096"/>
+        <c:axId val="1694458512"/>
+        <c:axId val="1694454160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1557981568"/>
+        <c:axId val="1694458512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1037,7 +1115,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1557988096"/>
+        <c:crossAx val="1694454160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1045,7 +1123,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1557988096"/>
+        <c:axId val="1694454160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1091,7 +1169,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1557981568"/>
+        <c:crossAx val="1694458512"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1104,6 +1182,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1428,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1048576"/>
+  <dimension ref="A1:S1048572"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1468,7 +1547,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1501,15 +1580,15 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1524,22 +1603,24 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="6">
-        <v>5</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7">
-        <v>2</v>
+    <row r="4" spans="1:19" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="41">
+        <v>9</v>
+      </c>
+      <c r="E4" s="41">
+        <v>7.5</v>
+      </c>
+      <c r="F4" s="41">
+        <v>1</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1555,18 +1636,24 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="6">
-        <v>5</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7">
-        <v>2</v>
+    <row r="5" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="41">
+        <v>11</v>
+      </c>
+      <c r="E5" s="41">
+        <v>7.5</v>
+      </c>
+      <c r="F5" s="41">
+        <v>1</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1582,18 +1669,20 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="6">
-        <v>3</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7">
-        <v>2</v>
+    <row r="6" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="39"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="41">
+        <v>15</v>
+      </c>
+      <c r="E6" s="41">
+        <v>9</v>
+      </c>
+      <c r="F6" s="41">
+        <v>1</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1609,18 +1698,20 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="6">
-        <v>3</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7">
-        <v>2</v>
+    <row r="7" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="40"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="41">
+        <v>15</v>
+      </c>
+      <c r="E7" s="41">
+        <v>11</v>
+      </c>
+      <c r="F7" s="41">
+        <v>1</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1636,16 +1727,22 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="7" t="s">
-        <v>48</v>
+    <row r="8" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D8" s="6">
-        <v>2</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4</v>
+      </c>
       <c r="F8" s="7">
         <v>2</v>
       </c>
@@ -1663,16 +1760,18 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="7" t="s">
-        <v>49</v>
+    <row r="9" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="D9" s="6">
-        <v>2</v>
-      </c>
-      <c r="E9" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="E9" s="6">
+        <v>6</v>
+      </c>
       <c r="F9" s="7">
         <v>2</v>
       </c>
@@ -1690,16 +1789,18 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="7" t="s">
-        <v>44</v>
+    <row r="10" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="25"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="D10" s="6">
-        <v>2</v>
-      </c>
-      <c r="E10" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2.5</v>
+      </c>
       <c r="F10" s="7">
         <v>2</v>
       </c>
@@ -1717,16 +1818,18 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
-      <c r="B11" s="25"/>
+    <row r="11" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="25"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="6">
+        <v>47</v>
+      </c>
+      <c r="D11" s="45">
         <v>3</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="6">
+        <v>3.5</v>
+      </c>
       <c r="F11" s="7">
         <v>2</v>
       </c>
@@ -1744,15 +1847,21 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
+    <row r="12" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="25"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1767,13 +1876,21 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
+    <row r="13" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="25"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="6">
+        <v>2</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="F13" s="7">
+        <v>2</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1788,13 +1905,21 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
+    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="25"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7">
+        <v>2</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1809,13 +1934,21 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
+    <row r="15" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="25"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="6">
+        <v>3</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="F15" s="7">
+        <v>2</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1831,12 +1964,14 @@
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1852,7 +1987,7 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
@@ -1957,14 +2092,12 @@
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2043,12 +2176,14 @@
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
+      <c r="A26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2085,13 +2220,11 @@
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="A28" s="5"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
       <c r="F28" s="7"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -2107,10 +2240,92 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="1048546" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048547" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048548" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048549" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+    </row>
     <row r="1048550" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048551" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048552" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2134,15 +2349,13 @@
     <row r="1048570" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048571" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048572" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
   </mergeCells>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -2156,7 +2369,7 @@
   </sheetPr>
   <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
@@ -2178,20 +2391,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28" t="s">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
       <c r="O1" s="1"/>
@@ -2206,40 +2419,40 @@
       <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="28" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="1"/>
@@ -2254,18 +2467,18 @@
       <c r="X2" s="1"/>
     </row>
     <row r="3" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -2375,43 +2588,43 @@
       </c>
       <c r="C6" s="19">
         <f t="shared" ref="C6:L6" si="1">B6-C9</f>
-        <v>500</v>
+        <v>465</v>
       </c>
       <c r="D6" s="19">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>440.6</v>
       </c>
       <c r="E6" s="19">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>440.6</v>
       </c>
       <c r="F6" s="19">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>440.6</v>
       </c>
       <c r="G6" s="19">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>440.6</v>
       </c>
       <c r="H6" s="19">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>440.6</v>
       </c>
       <c r="I6" s="19">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>440.6</v>
       </c>
       <c r="J6" s="19">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>440.6</v>
       </c>
       <c r="K6" s="19">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>440.6</v>
       </c>
       <c r="L6" s="19">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>440.6</v>
       </c>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
@@ -2453,22 +2666,22 @@
       <c r="X7" s="1"/>
     </row>
     <row r="8" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
       <c r="M8" s="21" t="s">
         <v>10</v>
       </c>
@@ -2487,17 +2700,17 @@
       <c r="X8" s="1"/>
     </row>
     <row r="9" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="27">
+      <c r="A9" s="30">
         <v>50</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="19">
         <f>SUMIF('Product Backlog'!F:F,1,'Product Backlog'!E:E)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D9" s="19">
         <f>SUMIF('Product Backlog'!F:F,2,'Product Backlog'!E:E)</f>
-        <v>0</v>
+        <v>24.4</v>
       </c>
       <c r="E9" s="19">
         <f>SUMIF('Product Backlog'!F:F,3,'Product Backlog'!E:E)</f>
@@ -2533,11 +2746,11 @@
       </c>
       <c r="M9" s="19">
         <f>SUM(C9:L9)</f>
-        <v>0</v>
+        <v>59.4</v>
       </c>
       <c r="N9" s="19">
         <f>M9/10</f>
-        <v>0</v>
+        <v>5.9399999999999995</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -2552,6 +2765,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:L8"/>
@@ -2568,7 +2782,6 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:N91">
     <cfRule type="expression" dxfId="2" priority="2">
